--- a/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-39,66%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 7,02</t>
+          <t>-16,16; 16,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 2,55</t>
+          <t>-14,2; 19,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 64,46</t>
+          <t>-62,85; 196,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 18,59</t>
+          <t>-57,46; 270,63</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-7,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,37%</t>
+          <t>-34,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-38,57%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 0,9</t>
+          <t>-15,23; 1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,15</t>
+          <t>-16,14; 0,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 6,39</t>
+          <t>-63,23; 9,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,66; 21,95</t>
+          <t>-65,44; 1,31</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-36,42%</t>
+          <t>-41,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-48,1%</t>
+          <t>-46,3%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 0,4</t>
+          <t>-18,15; -0,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -2,74</t>
+          <t>-20,0; -1,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-59,67; 2,8</t>
+          <t>-67,7; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -16,73</t>
+          <t>-68,16; -5,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -13,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-7,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-33,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-35,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-12,11; -1,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; -1,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-53,45; -6,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-53,66; -11,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.08620672101736226</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4467569244867908</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.004982409672743313</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.02239387584154107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 16,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 19,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-62,85; 196,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-57,46; 270,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.16310303725865</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.56315635245967</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.6284537906522896</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6709525422238503</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.29506308015619</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.22539913742944</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.967455069974069</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.889789096597893</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,75</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-34,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-38,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,23; 1,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; 0,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-63,23; 9,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-65,44; 1,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.680617809461772</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.321328808521567</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.3495011075014028</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.3243914767807306</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-41,06%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-46,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.23396178758132</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.19821479163104</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6323457021169626</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6139172876691287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; -0,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,0; -1,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-67,7; 3,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-68,16; -5,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.235679474950346</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.621330942984878</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.09656738580041764</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1473919188343313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.341874752888508</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.07937376702997</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.4106076351541933</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.457887981275688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.14987282181864</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.25968668068817</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.6770182205326452</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6907366035920488</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.07448080918325987</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.004623214352968</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.03986809806453408</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.04226076001276456</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-33,15%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-35,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; -1,19</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; -1,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-53,45; -6,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-53,66; -11,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.405572971338048</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.87918496474181</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.3315265366729996</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.3351828279199141</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.10577173717635</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.01740801807667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.5344612655673151</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5349805652109354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.186006603795377</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.320074172552444</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.06299789808106061</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.06870566913581307</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
